--- a/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>OBT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,42 +665,44 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,26 +712,32 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F8" s="3">
         <v>14800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>53500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>12600</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,8 +747,14 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +782,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +836,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -906,16 +952,16 @@
         <v>-100</v>
       </c>
       <c r="E15" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F15" s="3">
         <v>-100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -926,8 +972,14 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,26 +988,28 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>10100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -965,26 +1019,32 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F18" s="3">
         <v>13700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>43400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>10100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1054,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,26 +1073,28 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-28800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-7000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,26 +1104,32 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F21" s="3">
         <v>6600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>16100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,8 +1139,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,26 +1174,32 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F23" s="3">
         <v>6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3100</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1123,26 +1209,32 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1152,8 +1244,14 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,26 +1279,32 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F26" s="3">
         <v>5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>11700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,26 +1314,32 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F27" s="3">
         <v>5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>11700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1239,8 +1349,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,26 +1489,32 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F32" s="3">
         <v>7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>28800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>7000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1384,26 +1524,32 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F33" s="3">
         <v>5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>11700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1413,8 +1559,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,26 +1594,32 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F35" s="3">
         <v>5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>11700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,31 +1629,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1669,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,20 +1703,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>390100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>322900</v>
+      </c>
+      <c r="F41" s="3">
         <v>253100</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1560,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1769,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1804,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1839,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1676,8 +1874,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1705,8 +1909,14 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,20 +1944,26 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F48" s="3">
         <v>14000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1763,20 +1979,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F49" s="3">
         <v>7300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +2014,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +2084,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1879,8 +2119,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,20 +2154,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2175200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2052200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1908800</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2223,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1992,8 +2254,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,20 +2289,26 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F59" s="3">
         <v>17800</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2050,8 +2324,14 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2079,20 +2359,26 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F61" s="3">
         <v>22300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2108,8 +2394,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2137,8 +2429,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,20 +2534,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1994600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1911300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1773700</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2253,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,20 +2724,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>60600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>56100</v>
+      </c>
+      <c r="F72" s="3">
         <v>51800</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,20 +2864,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>140900</v>
+      </c>
+      <c r="F76" s="3">
         <v>135100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,31 +2934,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,26 +2974,32 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F81" s="3">
         <v>5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>11700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2619,8 +3009,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +3028,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2641,16 +3039,16 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2661,8 +3059,14 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,26 +3234,32 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F89" s="3">
         <v>2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>11300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3269,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,26 +3288,28 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,8 +3319,14 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,26 +3389,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-113700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-331000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-63800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3424,14 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,25 +3443,27 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-3600</v>
       </c>
       <c r="F96" s="3">
         <v>-900</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3006,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,26 +3579,32 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>114300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>137100</v>
+      </c>
+      <c r="F100" s="3">
         <v>243100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>415700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>121400</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3614,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,26 +3649,32 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>67200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>69800</v>
+      </c>
+      <c r="F102" s="3">
         <v>131900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>96100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>59200</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3682,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>OBT</t>
   </si>
@@ -3047,8 +3047,8 @@
       <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
-        <v>400</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3257,8 +3257,8 @@
       <c r="G89" s="3">
         <v>11300</v>
       </c>
-      <c r="H89" s="3">
-        <v>1500</v>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3307,8 +3307,8 @@
       <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
-        <v>-300</v>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3412,8 +3412,8 @@
       <c r="G94" s="3">
         <v>-331000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-63800</v>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3463,7 +3463,7 @@
         <v>-3600</v>
       </c>
       <c r="H96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3602,8 +3602,8 @@
       <c r="G100" s="3">
         <v>415700</v>
       </c>
-      <c r="H100" s="3">
-        <v>121400</v>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3672,8 +3672,8 @@
       <c r="G102" s="3">
         <v>96100</v>
       </c>
-      <c r="H102" s="3">
-        <v>59200</v>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>OBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,49 +665,49 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="J7" s="2">
+        <v>44104</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -718,31 +718,37 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>17100</v>
+      </c>
+      <c r="F8" s="3">
         <v>16900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>14800</v>
       </c>
-      <c r="G8" s="3">
-        <v>53500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>12600</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>13600</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -753,8 +759,14 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +800,14 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +841,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +862,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +899,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +940,14 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +981,14 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -958,16 +1002,16 @@
         <v>-100</v>
       </c>
       <c r="G15" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H15" s="3">
         <v>-100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -978,8 +1022,14 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,31 +1040,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2400</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1025,31 +1077,37 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F18" s="3">
         <v>14900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>13900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>13700</v>
       </c>
-      <c r="G18" s="3">
-        <v>43400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>11200</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1118,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,31 +1139,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-7400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-7500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-7600</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1110,26 +1176,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F21" s="3">
         <v>7400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>6900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6600</v>
       </c>
-      <c r="G21" s="3">
-        <v>16100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>3500</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,8 +1217,14 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1180,31 +1258,37 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E23" s="3">
         <v>7000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G23" s="3">
         <v>6500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>6300</v>
       </c>
-      <c r="G23" s="3">
-        <v>14500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3600</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1215,31 +1299,37 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>600</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>700</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1250,8 +1340,14 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,31 +1381,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>5000</v>
       </c>
-      <c r="G26" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1320,31 +1422,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>5000</v>
       </c>
-      <c r="G27" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1463,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1504,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1545,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1586,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,31 +1627,37 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F32" s="3">
         <v>8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>7400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>7500</v>
       </c>
-      <c r="G32" s="3">
-        <v>28800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>7600</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1530,31 +1668,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>5200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>5000</v>
       </c>
-      <c r="G33" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1709,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,31 +1750,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>5200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>5000</v>
       </c>
-      <c r="G35" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1635,36 +1791,42 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="J38" s="2">
+        <v>44104</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1675,8 +1837,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1858,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1875,28 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>356300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>306200</v>
+      </c>
+      <c r="F41" s="3">
         <v>390100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>322900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>253100</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1912,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1953,14 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1994,14 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,8 +2035,14 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1880,8 +2076,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1915,8 +2117,14 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,26 +2158,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F48" s="3">
         <v>14400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>14000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,26 +2199,32 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F49" s="3">
         <v>7100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>7300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2240,14 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2281,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2322,14 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2125,8 +2363,14 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2404,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2281100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2142600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2175200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2052200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1908800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2445,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2466,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,8 +2483,10 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2260,8 +2520,14 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2295,26 +2561,32 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F59" s="3">
         <v>20300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>17300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,8 +2602,14 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2365,8 +2643,14 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2377,14 +2661,14 @@
         <v>22400</v>
       </c>
       <c r="F61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="G61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H61" s="3">
         <v>22300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2684,14 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2435,8 +2725,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2766,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2807,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2848,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2116500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1959700</v>
+      </c>
+      <c r="F66" s="3">
         <v>1994600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1911300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1773700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2889,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2910,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2947,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2988,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +3029,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +3070,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>64900</v>
+      </c>
+      <c r="F72" s="3">
         <v>60600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>56100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>51800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +3111,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +3152,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3193,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3234,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>164500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>182800</v>
+      </c>
+      <c r="F76" s="3">
         <v>180600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>140900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>135100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3275,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,36 +3316,42 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
-        <v>43921</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="J80" s="2">
+        <v>44104</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2980,31 +3362,37 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>5200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>5000</v>
       </c>
-      <c r="G81" s="3">
-        <v>11700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3403,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3424,10 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3045,10 +3441,10 @@
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>400</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3461,14 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3502,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3543,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3584,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3625,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,26 +3666,32 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F89" s="3">
         <v>7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2400</v>
       </c>
-      <c r="G89" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3275,8 +3707,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,26 +3728,28 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3325,8 +3765,14 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3806,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,26 +3847,32 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-54500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-72100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-113700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-331000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3430,8 +3888,14 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3909,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3454,17 +3920,17 @@
         <v>-1100</v>
       </c>
       <c r="E96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-900</v>
       </c>
-      <c r="G96" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3480,8 +3946,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3987,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +4028,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,26 +4069,32 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F100" s="3">
         <v>114300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>137100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>243100</v>
       </c>
-      <c r="G100" s="3">
-        <v>415700</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3620,8 +4110,14 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,26 +4151,32 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="F102" s="3">
         <v>67200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>69800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>131900</v>
       </c>
-      <c r="G102" s="3">
-        <v>96100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3688,6 +4190,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
   <si>
     <t>OBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,53 +665,54 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,35 +725,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E8" s="3">
         <v>17300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>16900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,8 +769,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1013,8 +1036,8 @@
       <c r="J15" s="3">
         <v>-100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>-100</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,35 +1068,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,35 +1110,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E18" s="3">
         <v>15400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>13900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,35 +1174,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,29 +1216,32 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>7000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>6900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,35 +1304,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>6600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>7000</v>
       </c>
       <c r="F23" s="3">
         <v>7000</v>
       </c>
       <c r="G23" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H23" s="3">
         <v>6500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,35 +1348,38 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,35 +1436,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,35 +1480,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,35 +1700,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E32" s="3">
         <v>8800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,35 +1744,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,35 +1832,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1797,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,29 +1963,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>271400</v>
+      </c>
+      <c r="E41" s="3">
         <v>356300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>306200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>390100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>322900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>253100</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1959,8 +2049,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2000,8 +2093,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2041,8 +2137,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2082,8 +2181,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2123,8 +2225,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2164,8 +2269,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2173,20 +2281,20 @@
         <v>14300</v>
       </c>
       <c r="E48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F48" s="3">
         <v>14600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>14400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,29 +2313,32 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E49" s="3">
         <v>7000</v>
       </c>
       <c r="F49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G49" s="3">
         <v>7100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>7200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,8 +2445,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2369,8 +2489,11 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,29 +2533,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2392000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2281100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2142600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2175200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2052200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1908800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,8 +2615,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2526,8 +2657,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2567,29 +2701,32 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E59" s="3">
         <v>20400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,8 +2745,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2649,8 +2789,11 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2667,11 +2810,11 @@
         <v>22400</v>
       </c>
       <c r="H61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I61" s="3">
         <v>22300</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2690,8 +2833,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2731,8 +2877,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,29 +3009,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2246300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2116500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1959700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1994600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1911300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1773700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,29 +3247,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E72" s="3">
         <v>69100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>64900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>51800</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,29 +3423,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E76" s="3">
         <v>164500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>182800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>180600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>140900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>135100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3281,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,35 +3560,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3409,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,8 +3645,8 @@
       <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>400</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3467,8 +3666,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,29 +3886,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E89" s="3">
         <v>3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3713,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,28 +3950,29 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-600</v>
       </c>
       <c r="F91" s="3">
         <v>-600</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>-400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3771,8 +3992,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,29 +4080,32 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-220900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-111000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-54500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-72100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-113700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3894,8 +4124,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3926,13 +4160,13 @@
         <v>-1100</v>
       </c>
       <c r="G96" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="H96" s="3">
         <v>-900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,29 +4318,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E100" s="3">
         <v>158000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-38600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>114300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>137100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>243100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4116,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4157,29 +4406,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-84900</v>
+      </c>
+      <c r="E102" s="3">
         <v>50100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-83900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>67200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>69800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>131900</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4196,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>OBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,38 +729,41 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E8" s="3">
         <v>18500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>16900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +891,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,8 +1062,8 @@
       <c r="K15" s="3">
         <v>-100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>-100</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,38 +1095,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>6500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,38 +1140,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E18" s="3">
         <v>12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>13900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11200</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,38 +1208,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7600</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,32 +1253,35 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E21" s="3">
         <v>2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>7000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7500</v>
       </c>
-      <c r="G21" s="3">
-        <v>7400</v>
-      </c>
       <c r="H21" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I21" s="3">
         <v>6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,8 +1300,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1307,38 +1347,41 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>7000</v>
       </c>
       <c r="G23" s="3">
         <v>7000</v>
       </c>
       <c r="H23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I23" s="3">
         <v>6500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,38 +1394,41 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,38 +1488,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,38 +1535,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,38 +1770,41 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E32" s="3">
         <v>9500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7600</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,38 +1817,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,38 +1911,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,43 +1958,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,32 +2050,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>180200</v>
+      </c>
+      <c r="E41" s="3">
         <v>271400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>356300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>306200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>390100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>322900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>253100</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2095,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,8 +2142,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,8 +2236,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2184,8 +2283,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2272,32 +2377,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="E48" s="3">
         <v>14300</v>
       </c>
       <c r="F48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G48" s="3">
         <v>14600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>14400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,32 +2424,35 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E49" s="3">
         <v>6900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7000</v>
       </c>
       <c r="F49" s="3">
         <v>7000</v>
       </c>
       <c r="G49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H49" s="3">
         <v>7100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>7200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2565,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,32 +2659,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2368400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2392000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2281100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2142600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2175200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2052200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1908800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,8 +2746,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2660,8 +2791,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2704,32 +2838,35 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E59" s="3">
         <v>20500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,8 +2885,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2792,8 +2932,11 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,11 +2956,11 @@
         <v>22400</v>
       </c>
       <c r="I61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J61" s="3">
         <v>22300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2836,8 +2979,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,32 +3167,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2232200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2246300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2116500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1959700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1994600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1911300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1773700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,32 +3421,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E72" s="3">
         <v>70100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>69100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>64900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>56100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>51800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,32 +3609,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>136200</v>
+      </c>
+      <c r="E76" s="3">
         <v>145700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>164500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>182800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>180600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>140900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>135100</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,43 +3703,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,38 +3755,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,13 +3823,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>400</v>
@@ -3648,8 +3847,8 @@
       <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>400</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3669,8 +3868,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,32 +4103,35 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E89" s="3">
         <v>7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4150,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,31 +4171,32 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
       </c>
       <c r="H91" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>-400</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3995,8 +4216,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,32 +4310,35 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-86800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-220900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-111000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-54500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-72100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-113700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4127,8 +4357,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4163,13 +4397,13 @@
         <v>-1100</v>
       </c>
       <c r="H96" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="I96" s="3">
         <v>-900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,32 +4564,35 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E100" s="3">
         <v>128600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>158000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>114300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>137100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>243100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4611,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,32 +4658,35 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-84900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-83900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>69800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>131900</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4703,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>OBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,61 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,41 +732,44 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E8" s="3">
         <v>22800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,8 +782,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +832,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +904,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +952,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1002,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1052,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1065,8 +1087,8 @@
       <c r="L15" s="3">
         <v>-100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
+      <c r="M15" s="3">
+        <v>-100</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
@@ -1080,8 +1102,11 @@
       <c r="Q15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,41 +1121,42 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,41 +1169,44 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E18" s="3">
         <v>19300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>13900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11200</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1219,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,41 +1241,42 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-9500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,35 +1289,38 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E21" s="3">
         <v>10200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>7000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>7500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>7300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1339,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1350,41 +1389,44 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E23" s="3">
         <v>9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3600</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,41 +1439,44 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1444,8 +1489,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,41 +1539,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E26" s="3">
         <v>7900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,41 +1589,44 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E27" s="3">
         <v>7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1639,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1689,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1739,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1789,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,41 +1839,44 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E32" s="3">
         <v>9600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>9500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,41 +1889,44 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E33" s="3">
         <v>7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1939,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,41 +1989,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E35" s="3">
         <v>7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,46 +2039,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2094,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2116,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,35 +2136,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E41" s="3">
         <v>180200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>271400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>356300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>306200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>390100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>322900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>253100</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2184,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,8 +2234,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2192,8 +2284,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,8 +2334,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2286,8 +2384,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2333,8 +2434,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,35 +2484,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E48" s="3">
         <v>14600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>14300</v>
       </c>
       <c r="F48" s="3">
         <v>14300</v>
       </c>
       <c r="G48" s="3">
+        <v>14300</v>
+      </c>
+      <c r="H48" s="3">
         <v>14600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>14400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>14100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>14000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2534,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2436,26 +2546,26 @@
         <v>6800</v>
       </c>
       <c r="E49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F49" s="3">
         <v>6900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>7000</v>
       </c>
       <c r="G49" s="3">
         <v>7000</v>
       </c>
       <c r="H49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I49" s="3">
         <v>7100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>7200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2474,8 +2584,11 @@
       <c r="Q49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2634,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,8 +2684,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2615,8 +2734,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,35 +2784,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2287300</v>
+      </c>
+      <c r="E54" s="3">
         <v>2368400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2392000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2281100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2142600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2175200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2052200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1908800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2834,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2856,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,8 +2876,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2794,8 +2924,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2841,35 +2974,38 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E59" s="3">
         <v>22200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,8 +3024,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2935,13 +3074,16 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>22400</v>
+        <v>19400</v>
       </c>
       <c r="E61" s="3">
         <v>22400</v>
@@ -2959,11 +3101,11 @@
         <v>22400</v>
       </c>
       <c r="J61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K61" s="3">
         <v>22300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2982,8 +3124,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3029,8 +3174,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3224,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3274,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,35 +3324,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2149200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2232200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2246300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2116500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1959700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1994600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1911300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1773700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3374,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3396,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3444,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3494,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3544,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,35 +3594,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>84600</v>
+      </c>
+      <c r="E72" s="3">
         <v>76900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>70100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>69100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>64900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>56100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>51800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3644,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3694,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3744,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,35 +3794,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E76" s="3">
         <v>136200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>145700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>164500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>182800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>180600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>140900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>135100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3844,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3894,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,41 +3949,44 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E81" s="3">
         <v>7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +3999,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,16 +4021,17 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
@@ -3850,8 +4048,8 @@
       <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>400</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3871,8 +4069,11 @@
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4119,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4169,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4219,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4269,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,35 +4319,38 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E89" s="3">
         <v>12800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4369,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,34 +4391,35 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
       </c>
       <c r="H91" s="3">
         <v>-600</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>-400</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4219,8 +4439,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4489,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,35 +4539,38 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-86800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-220900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-111000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-54500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-72100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-113700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4589,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,13 +4611,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1100</v>
+        <v>-1300</v>
       </c>
       <c r="E96" s="3">
         <v>-1100</v>
@@ -4400,13 +4633,13 @@
         <v>-1100</v>
       </c>
       <c r="I96" s="3">
-        <v>-900</v>
+        <v>-1100</v>
       </c>
       <c r="J96" s="3">
         <v>-900</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -4426,8 +4659,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4709,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4759,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,35 +4809,38 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>128600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>158000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-38600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>114300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>137100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>243100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4859,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,35 +4909,38 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-94200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-91200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-84900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-83900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>67200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>69800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>131900</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4957,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OBT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>OBT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,67 +665,69 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -735,47 +737,53 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F8" s="3">
         <v>25600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>22800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>18500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>17300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>17100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>16900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>15700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>14800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>14300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>13600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -785,8 +793,14 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,8 +849,14 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +905,14 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,8 +931,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -955,8 +983,14 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1005,8 +1039,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,8 +1095,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,11 +1136,11 @@
       <c r="M15" s="3">
         <v>-100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
+      <c r="N15" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-100</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
@@ -1105,8 +1151,14 @@
       <c r="R15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1122,47 +1174,49 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>6500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,47 +1226,53 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F18" s="3">
         <v>21800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>19300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>12000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>15400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>15600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>13900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>13700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>11500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>11200</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,8 +1282,14 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1242,47 +1308,49 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-10300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-9600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-9500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-8800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-8600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7600</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1292,41 +1360,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F21" s="3">
         <v>11900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>10200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>7000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>7500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>7300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6600</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1342,8 +1416,14 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1392,47 +1472,53 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>11500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>6600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>3600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1442,47 +1528,53 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
         <v>2500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1492,8 +1584,14 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1542,8 +1640,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1551,38 +1655,38 @@
         <v>9100</v>
       </c>
       <c r="E26" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G26" s="3">
         <v>7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1592,8 +1696,14 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1601,38 +1711,38 @@
         <v>9100</v>
       </c>
       <c r="E27" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G27" s="3">
         <v>7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>5600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1752,14 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1692,8 +1808,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1742,8 +1864,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1792,8 +1920,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1842,47 +1976,53 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F32" s="3">
         <v>10300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>9600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>9500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>8800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>8600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7600</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1892,8 +2032,14 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1901,38 +2047,38 @@
         <v>9100</v>
       </c>
       <c r="E33" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G33" s="3">
         <v>7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>5600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>5000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1942,8 +2088,14 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1992,8 +2144,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2001,38 +2159,38 @@
         <v>9100</v>
       </c>
       <c r="E35" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G35" s="3">
         <v>7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>5600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>5000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2042,52 +2200,58 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2261,14 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2117,8 +2287,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2137,41 +2309,43 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>178600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>165300</v>
+      </c>
+      <c r="F41" s="3">
         <v>86100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>180200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>271400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>356300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>306200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>390100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>322900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>253100</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,8 +2361,14 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2237,8 +2417,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2287,8 +2473,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2337,8 +2529,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2387,8 +2585,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2437,8 +2641,14 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2487,41 +2697,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F48" s="3">
         <v>14700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>14600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>14300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>14300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>14600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>14400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>14100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>14000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2537,41 +2753,47 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F49" s="3">
         <v>6800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>6800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>6900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>7000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>7000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>7100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2809,14 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2637,8 +2865,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2687,8 +2921,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2737,8 +2977,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2787,41 +3033,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2493900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2455000</v>
+      </c>
+      <c r="F54" s="3">
         <v>2287300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2368400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2392000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2281100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2142600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2175200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2052200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1908800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2837,8 +3089,14 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2857,8 +3115,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2877,8 +3137,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2927,8 +3189,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2977,41 +3245,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>22100</v>
+      </c>
+      <c r="F59" s="3">
         <v>23900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>22200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>20400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>23000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>20300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>17300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>17800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3027,8 +3301,14 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3077,19 +3357,25 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F61" s="3">
         <v>19400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>22400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>22400</v>
       </c>
       <c r="G61" s="3">
         <v>22400</v>
@@ -3104,14 +3390,14 @@
         <v>22400</v>
       </c>
       <c r="K61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="L61" s="3">
+        <v>22400</v>
+      </c>
+      <c r="M61" s="3">
         <v>22300</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3127,8 +3413,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3177,8 +3469,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3227,8 +3525,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3581,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3327,41 +3637,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2345700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2306400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2149200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2232200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2246300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2116500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1959700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1994600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1911300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1773700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3377,8 +3693,14 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3397,8 +3719,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3447,8 +3771,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3497,8 +3827,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3547,8 +3883,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3597,41 +3939,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>85000</v>
+      </c>
+      <c r="F72" s="3">
         <v>84600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>76900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>70100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>69100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>64900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>60600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>56100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>51800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3647,8 +3995,14 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3697,8 +4051,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3747,8 +4107,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3797,41 +4163,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>148600</v>
+      </c>
+      <c r="F76" s="3">
         <v>138100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>136200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>145700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>164500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>182800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>180600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>140900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>135100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3847,8 +4219,14 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3897,52 +4275,58 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3952,8 +4336,14 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3961,38 +4351,38 @@
         <v>9100</v>
       </c>
       <c r="E81" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G81" s="3">
         <v>7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>5600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>5000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,8 +4392,14 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4022,22 +4418,24 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -4051,11 +4449,11 @@
       <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
+        <v>400</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4072,8 +4470,14 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4122,8 +4526,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4172,8 +4582,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4222,8 +4638,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4272,8 +4694,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4322,41 +4750,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F89" s="3">
         <v>7200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>12800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4372,8 +4806,14 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4392,41 +4832,43 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4442,8 +4884,14 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4492,8 +4940,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4542,41 +4996,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-86300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-86800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-220900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-111000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-51000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-54500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-72100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-113700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4592,8 +5052,14 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4612,8 +5078,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4621,10 +5089,10 @@
         <v>-1300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1100</v>
+        <v>-1300</v>
       </c>
       <c r="F96" s="3">
-        <v>-1100</v>
+        <v>-1300</v>
       </c>
       <c r="G96" s="3">
         <v>-1100</v>
@@ -4636,17 +5104,17 @@
         <v>-1100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4662,8 +5130,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4712,8 +5186,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4762,8 +5242,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4812,41 +5298,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>157400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-86000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-17100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>128600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>158000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-38600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>114300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>137100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>243100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4862,8 +5354,14 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4912,41 +5410,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>79200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-94200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-91200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-84900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>50100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-83900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>67200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>69800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>131900</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4960,6 +5464,12 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
